--- a/class_schedules_fall_2019/ASTRONOMY (ASTR).xlsx
+++ b/class_schedules_fall_2019/ASTRONOMY (ASTR).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>100</t>
   </si>
@@ -37,7 +37,10 @@
     <t>MWF</t>
   </si>
   <si>
-    <t>0130-0220pm</t>
+    <t>0130</t>
+  </si>
+  <si>
+    <t>0220pm</t>
   </si>
   <si>
     <t>TBA</t>
@@ -401,13 +404,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -438,8 +441,11 @@
       <c r="K1" s="1">
         <v>9</v>
       </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -472,6 +478,9 @@
       </c>
       <c r="K2" t="s">
         <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
